--- a/TestReadingSystem/reading_system/static/result/result.xlsx
+++ b/TestReadingSystem/reading_system/static/result/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D531"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>测试时间</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>学生账号</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,11 @@
           <t>2023-03-10 04:30:20.037911+00:00</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +496,11 @@
           <t>2023-03-10 04:30:24.074029+00:00</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +523,11 @@
           <t>2023-03-10 04:30:28.435113+00:00</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -530,6 +550,11 @@
           <t>2023-03-10 04:30:31.315391+00:00</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,6 +577,11 @@
           <t>2023-03-10 04:30:35.875312+00:00</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -574,6 +604,11 @@
           <t>2023-03-10 04:30:39.879121+00:00</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,6 +631,11 @@
           <t>2023-03-10 04:30:42.966103+00:00</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -618,6 +658,11 @@
           <t>2023-03-10 04:30:48.052981+00:00</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -640,6 +685,11 @@
           <t>2023-03-10 04:30:50.828452+00:00</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -662,6 +712,11 @@
           <t>2023-03-10 05:56:37.073651+00:00</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -684,6 +739,11 @@
           <t>2023-03-10 05:56:38.182716+00:00</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -706,6 +766,11 @@
           <t>2023-03-10 05:56:40.409336+00:00</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -728,6 +793,11 @@
           <t>2023-03-10 05:56:44.088161+00:00</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -750,6 +820,11 @@
           <t>2023-03-10 05:56:47.233356+00:00</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -772,6 +847,11 @@
           <t>2023-03-10 05:56:50.197647+00:00</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -794,6 +874,11 @@
           <t>2023-03-10 05:56:52.397040+00:00</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -816,6 +901,11 @@
           <t>2023-03-10 05:56:54.922143+00:00</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>2023-03-10 05:56:57.193997+00:00</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -860,6 +955,11 @@
           <t>2023-03-10 05:57:00.716866+00:00</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -882,6 +982,11 @@
           <t>2023-03-10 05:57:04.873569+00:00</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -904,6 +1009,11 @@
           <t>2023-03-10 05:57:08.055056+00:00</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -926,6 +1036,11 @@
           <t>2023-03-10 08:32:18.336312+00:00</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -948,6 +1063,11 @@
           <t>2023-03-10 08:32:20.074529+00:00</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -970,6 +1090,11 @@
           <t>2023-03-10 08:32:22.470771+00:00</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -992,6 +1117,11 @@
           <t>2023-03-10 08:32:25.385256+00:00</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1014,6 +1144,11 @@
           <t>2023-03-10 08:32:28.133523+00:00</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1036,6 +1171,11 @@
           <t>2023-03-10 08:32:31.219626+00:00</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1058,6 +1198,11 @@
           <t>2023-03-10 08:32:33.493325+00:00</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1080,6 +1225,11 @@
           <t>2023-03-10 08:32:36.176708+00:00</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1102,6 +1252,11 @@
           <t>2023-03-10 08:32:38.374552+00:00</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1124,6 +1279,11 @@
           <t>2023-03-10 08:32:40.939907+00:00</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1146,6 +1306,11 @@
           <t>2023-03-10 08:32:43.694540+00:00</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1168,6 +1333,11 @@
           <t>2023-03-10 08:33:13.228517+00:00</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1190,6 +1360,11 @@
           <t>2023-03-10 08:33:17.393742+00:00</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1212,6 +1387,11 @@
           <t>2023-03-10 08:33:21.076340+00:00</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1234,6 +1414,11 @@
           <t>2023-03-10 08:33:25.742314+00:00</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1256,6 +1441,11 @@
           <t>2023-03-10 08:33:29.485071+00:00</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1278,6 +1468,11 @@
           <t>2023-03-10 08:33:34.940698+00:00</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1300,6 +1495,11 @@
           <t>2023-03-10 08:33:38.630859+00:00</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1322,6 +1522,11 @@
           <t>2023-03-10 08:33:45.076378+00:00</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1344,6 +1549,11 @@
           <t>2023-03-10 08:33:50.894226+00:00</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1366,6 +1576,11 @@
           <t>2023-03-10 08:33:54.997339+00:00</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1388,6 +1603,11 @@
           <t>2023-03-10 08:33:58.463679+00:00</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1410,6 +1630,11 @@
           <t>2023-03-10 08:34:04.211518+00:00</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1432,6 +1657,11 @@
           <t>2023-03-10 08:34:06.938698+00:00</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1454,6 +1684,11 @@
           <t>2023-03-10 08:34:10.598616+00:00</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>小元</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1476,6 +1711,11 @@
           <t>2023-03-11 04:19:04.807546+00:00</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1498,6 +1738,11 @@
           <t>2023-03-11 04:19:04.847514+00:00</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1520,6 +1765,11 @@
           <t>2023-03-11 04:19:04.850522+00:00</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1542,6 +1792,11 @@
           <t>2023-03-11 04:19:04.900582+00:00</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1564,6 +1819,11 @@
           <t>2023-03-11 04:19:04.923516+00:00</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1586,6 +1846,11 @@
           <t>2023-03-11 04:19:05.038832+00:00</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1608,6 +1873,11 @@
           <t>2023-03-11 04:19:05.127248+00:00</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1630,6 +1900,11 @@
           <t>2023-03-11 04:23:29.875381+00:00</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1652,6 +1927,11 @@
           <t>2023-03-11 04:23:32.537200+00:00</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1674,6 +1954,11 @@
           <t>2023-03-11 04:23:33.276758+00:00</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1696,6 +1981,11 @@
           <t>2023-03-11 04:23:34.260863+00:00</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1718,6 +2008,11 @@
           <t>2023-03-11 04:23:34.519617+00:00</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1740,6 +2035,11 @@
           <t>2023-03-26 12:47:27.314797+00:00</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1762,6 +2062,11 @@
           <t>2023-03-26 12:47:28.066910+00:00</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1784,6 +2089,11 @@
           <t>2023-03-26 12:47:31.033148+00:00</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1806,6 +2116,11 @@
           <t>2023-03-26 12:47:31.527799+00:00</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1828,6 +2143,11 @@
           <t>2023-03-26 12:47:32.923043+00:00</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1850,6 +2170,11 @@
           <t>2023-03-26 12:47:34.756256+00:00</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1872,6 +2197,11 @@
           <t>2023-03-26 12:47:36.099528+00:00</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1894,6 +2224,11 @@
           <t>2023-03-26 12:47:37.193473+00:00</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1916,6 +2251,11 @@
           <t>2023-03-26 12:47:38.607276+00:00</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1938,6 +2278,11 @@
           <t>2023-03-26 12:47:39.903592+00:00</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1960,6 +2305,11 @@
           <t>2023-03-26 12:47:42.039134+00:00</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1982,6 +2332,11 @@
           <t>2023-03-26 12:47:43.279749+00:00</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2004,6 +2359,11 @@
           <t>2023-03-26 12:47:44.716766+00:00</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2026,6 +2386,11 @@
           <t>2023-03-26 12:47:46.275151+00:00</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2048,6 +2413,11 @@
           <t>2023-03-26 12:47:47.577666+00:00</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2070,6 +2440,11 @@
           <t>2023-03-26 12:48:37.660318+00:00</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2092,6 +2467,11 @@
           <t>2023-03-26 12:48:39.784609+00:00</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2114,6 +2494,11 @@
           <t>2023-03-26 12:48:41.680787+00:00</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2136,6 +2521,11 @@
           <t>2023-03-26 12:48:44.438856+00:00</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2158,6 +2548,11 @@
           <t>2023-03-26 12:48:46.360567+00:00</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2180,6 +2575,11 @@
           <t>2023-03-26 12:48:48.904116+00:00</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2202,6 +2602,11 @@
           <t>2023-03-26 12:48:51.699760+00:00</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2224,6 +2629,11 @@
           <t>2023-03-26 12:48:52.979067+00:00</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2246,6 +2656,11 @@
           <t>2023-03-26 12:48:54.117171+00:00</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2268,6 +2683,11 @@
           <t>2023-03-26 12:48:55.095271+00:00</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2290,6 +2710,11 @@
           <t>2023-03-26 12:48:56.124634+00:00</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2312,6 +2737,11 @@
           <t>2023-03-26 12:48:57.778122+00:00</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2334,6 +2764,11 @@
           <t>2023-03-26 12:48:59.095672+00:00</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2356,6 +2791,11 @@
           <t>2023-03-26 12:49:00.520189+00:00</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2378,6 +2818,11 @@
           <t>2023-03-26 12:49:01.899984+00:00</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2400,6 +2845,11 @@
           <t>2023-03-26 12:49:04.116159+00:00</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2422,6 +2872,11 @@
           <t>2023-03-26 12:49:05.999113+00:00</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2444,6 +2899,11 @@
           <t>2023-03-26 12:49:07.478770+00:00</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2466,6 +2926,11 @@
           <t>2023-03-26 12:49:09.550163+00:00</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2488,6 +2953,11 @@
           <t>2023-03-26 12:49:11.084560+00:00</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2510,6 +2980,11 @@
           <t>2023-03-26 12:49:12.802540+00:00</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2532,6 +3007,11 @@
           <t>2023-03-26 12:49:14.289140+00:00</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2554,6 +3034,11 @@
           <t>2023-03-26 12:49:15.715376+00:00</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2576,6 +3061,11 @@
           <t>2023-03-26 12:49:16.881644+00:00</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2598,6 +3088,11 @@
           <t>2023-03-26 12:49:18.070539+00:00</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2620,6 +3115,11 @@
           <t>2023-03-26 12:49:19.879842+00:00</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2642,6 +3142,11 @@
           <t>2023-03-26 12:49:21.843051+00:00</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2664,6 +3169,11 @@
           <t>2023-03-26 12:49:24.461069+00:00</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2686,6 +3196,11 @@
           <t>2023-03-26 12:49:26.219219+00:00</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2708,6 +3223,11 @@
           <t>2023-03-26 12:51:45.923942+00:00</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2730,6 +3250,11 @@
           <t>2023-03-26 12:51:47.142518+00:00</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2752,6 +3277,11 @@
           <t>2023-03-26 12:51:48.297010+00:00</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2774,6 +3304,11 @@
           <t>2023-03-26 12:51:49.553462+00:00</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2796,6 +3331,11 @@
           <t>2023-03-26 12:51:50.756423+00:00</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2818,6 +3358,11 @@
           <t>2023-03-26 12:51:51.877033+00:00</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2840,6 +3385,11 @@
           <t>2023-03-26 12:51:52.955883+00:00</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2862,6 +3412,11 @@
           <t>2023-03-26 12:51:54.009966+00:00</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2884,6 +3439,11 @@
           <t>2023-03-26 12:51:54.575788+00:00</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2906,6 +3466,11 @@
           <t>2023-03-26 12:51:56.198143+00:00</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2928,6 +3493,11 @@
           <t>2023-03-26 12:51:57.195318+00:00</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2950,6 +3520,11 @@
           <t>2023-03-26 12:51:58.266055+00:00</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2972,6 +3547,11 @@
           <t>2023-03-26 12:51:59.174168+00:00</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2994,6 +3574,11 @@
           <t>2023-03-26 12:52:00.297478+00:00</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3016,6 +3601,11 @@
           <t>2023-03-26 12:52:01.386090+00:00</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3038,6 +3628,11 @@
           <t>2023-03-26 12:52:03.671117+00:00</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3060,6 +3655,11 @@
           <t>2023-03-26 12:52:38.393201+00:00</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3082,6 +3682,11 @@
           <t>2023-03-26 12:52:39.321013+00:00</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3104,6 +3709,11 @@
           <t>2023-03-26 12:52:40.214479+00:00</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3126,6 +3736,11 @@
           <t>2023-03-26 12:52:41.188138+00:00</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3148,6 +3763,11 @@
           <t>2023-03-26 12:52:42.093567+00:00</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3170,6 +3790,11 @@
           <t>2023-03-26 12:52:43.249543+00:00</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3192,6 +3817,11 @@
           <t>2023-03-26 12:52:44.364095+00:00</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3214,6 +3844,11 @@
           <t>2023-03-26 12:52:45.709439+00:00</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3236,6 +3871,11 @@
           <t>2023-03-26 12:52:46.675791+00:00</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3258,6 +3898,11 @@
           <t>2023-03-26 12:52:47.850641+00:00</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3280,6 +3925,11 @@
           <t>2023-03-26 12:52:48.954833+00:00</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3302,6 +3952,11 @@
           <t>2023-03-26 12:52:50.453595+00:00</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3324,6 +3979,11 @@
           <t>2023-03-26 12:52:51.926751+00:00</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3346,6 +4006,11 @@
           <t>2023-03-26 12:52:53.577003+00:00</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3368,6 +4033,11 @@
           <t>2023-03-26 12:52:57.561404+00:00</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3390,6 +4060,11 @@
           <t>2023-03-26 12:53:44.847175+00:00</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3412,6 +4087,11 @@
           <t>2023-03-26 12:53:49.209128+00:00</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3434,6 +4114,11 @@
           <t>2023-03-26 12:54:25.815180+00:00</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3456,6 +4141,11 @@
           <t>2023-03-26 12:54:27.912587+00:00</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3478,6 +4168,11 @@
           <t>2023-03-26 12:54:31.485517+00:00</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3500,6 +4195,11 @@
           <t>2023-03-26 12:54:34.497406+00:00</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3522,6 +4222,11 @@
           <t>2023-03-26 12:54:37.514217+00:00</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3544,6 +4249,11 @@
           <t>2023-03-26 12:54:38.475944+00:00</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3566,6 +4276,11 @@
           <t>2023-03-26 12:54:40.585023+00:00</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3588,6 +4303,11 @@
           <t>2023-03-26 12:54:44.533038+00:00</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3610,6 +4330,11 @@
           <t>2023-03-26 12:54:46.939052+00:00</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3632,6 +4357,11 @@
           <t>2023-03-26 12:54:49.483231+00:00</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3654,6 +4384,11 @@
           <t>2023-03-26 12:54:51.475242+00:00</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3676,6 +4411,11 @@
           <t>2023-03-26 12:58:20.457236+00:00</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3698,6 +4438,11 @@
           <t>2023-03-26 12:58:22.859410+00:00</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3720,6 +4465,11 @@
           <t>2023-03-26 12:58:28.142543+00:00</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3742,6 +4492,11 @@
           <t>2023-03-26 12:58:30.550723+00:00</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3764,6 +4519,11 @@
           <t>2023-03-26 12:58:32.456335+00:00</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3786,6 +4546,11 @@
           <t>2023-03-26 12:58:38.385584+00:00</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3808,6 +4573,11 @@
           <t>2023-03-26 12:58:42.704619+00:00</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3830,6 +4600,11 @@
           <t>2023-03-26 12:58:46.164210+00:00</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3852,6 +4627,11 @@
           <t>2023-03-26 12:58:48.848091+00:00</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3874,6 +4654,11 @@
           <t>2023-03-26 12:58:53.245910+00:00</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3896,6 +4681,11 @@
           <t>2023-03-26 12:58:55.722160+00:00</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3918,6 +4708,11 @@
           <t>2023-03-26 12:58:56.948887+00:00</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3940,6 +4735,11 @@
           <t>2023-03-26 12:58:58.803297+00:00</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3962,6 +4762,11 @@
           <t>2023-03-26 12:59:00.078035+00:00</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3984,6 +4789,11 @@
           <t>2023-03-26 12:59:01.369052+00:00</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4006,6 +4816,11 @@
           <t>2023-03-26 13:04:57.406081+00:00</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4028,6 +4843,11 @@
           <t>2023-03-26 13:04:57.892351+00:00</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4050,6 +4870,11 @@
           <t>2023-03-26 13:05:03.282864+00:00</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4072,6 +4897,11 @@
           <t>2023-03-26 13:05:09.962653+00:00</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4094,6 +4924,11 @@
           <t>2023-03-26 13:05:13.360692+00:00</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4116,6 +4951,11 @@
           <t>2023-03-26 13:05:17.034971+00:00</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4138,6 +4978,11 @@
           <t>2023-03-26 13:05:22.083625+00:00</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4160,6 +5005,11 @@
           <t>2023-03-26 13:06:03.144257+00:00</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4182,6 +5032,11 @@
           <t>2023-03-26 13:06:06.678118+00:00</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4204,6 +5059,11 @@
           <t>2023-03-26 13:06:09.252717+00:00</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4226,6 +5086,11 @@
           <t>2023-03-26 13:06:11.089512+00:00</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4248,6 +5113,11 @@
           <t>2023-03-26 13:06:12.759343+00:00</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4270,6 +5140,11 @@
           <t>2023-03-26 13:06:14.215156+00:00</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4292,6 +5167,11 @@
           <t>2023-03-26 13:06:15.945481+00:00</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4314,6 +5194,11 @@
           <t>2023-03-26 13:08:04.812702+00:00</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4336,6 +5221,11 @@
           <t>2023-03-26 13:08:08.992275+00:00</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4358,6 +5248,11 @@
           <t>2023-03-26 13:08:53.193153+00:00</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4380,6 +5275,11 @@
           <t>2023-03-26 13:08:56.279459+00:00</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4402,6 +5302,11 @@
           <t>2023-03-26 13:08:58.946182+00:00</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4424,6 +5329,11 @@
           <t>2023-03-26 13:09:00.475268+00:00</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4446,6 +5356,11 @@
           <t>2023-03-26 13:10:23.103360+00:00</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4468,6 +5383,11 @@
           <t>2023-03-26 13:10:24.623084+00:00</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4490,6 +5410,11 @@
           <t>2023-03-26 13:10:25.812691+00:00</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4512,6 +5437,11 @@
           <t>2023-03-26 13:10:27.160988+00:00</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4534,6 +5464,11 @@
           <t>2023-03-26 13:10:28.438756+00:00</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4556,6 +5491,11 @@
           <t>2023-03-26 13:10:29.738684+00:00</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4578,6 +5518,11 @@
           <t>2023-03-26 13:10:30.960360+00:00</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4600,6 +5545,11 @@
           <t>2023-03-26 13:10:32.091043+00:00</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4622,6 +5572,11 @@
           <t>2023-03-26 13:10:33.390931+00:00</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4644,6 +5599,11 @@
           <t>2023-03-26 13:10:34.576089+00:00</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4666,6 +5626,11 @@
           <t>2023-03-26 13:10:35.873325+00:00</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4688,6 +5653,11 @@
           <t>2023-03-26 13:10:37.650783+00:00</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4710,6 +5680,11 @@
           <t>2023-03-26 13:10:38.924228+00:00</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4732,6 +5707,11 @@
           <t>2023-03-26 13:10:40.380011+00:00</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4754,6 +5734,11 @@
           <t>2023-03-26 13:10:41.643230+00:00</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4776,6 +5761,11 @@
           <t>2023-03-26 13:10:42.724646+00:00</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4798,6 +5788,11 @@
           <t>2023-03-26 13:11:30.667391+00:00</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4820,6 +5815,11 @@
           <t>2023-03-26 13:11:32.126141+00:00</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4842,6 +5842,11 @@
           <t>2023-03-26 13:11:32.710187+00:00</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4864,6 +5869,11 @@
           <t>2023-03-26 13:11:32.903744+00:00</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4886,6 +5896,11 @@
           <t>2023-03-26 13:11:33.400217+00:00</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4908,6 +5923,11 @@
           <t>2023-03-26 13:11:33.868768+00:00</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4930,6 +5950,11 @@
           <t>2023-03-26 13:11:34.967493+00:00</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4952,6 +5977,11 @@
           <t>2023-03-26 13:11:35.258639+00:00</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4974,6 +6004,11 @@
           <t>2023-03-26 13:11:35.957601+00:00</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4996,6 +6031,11 @@
           <t>2023-03-26 13:11:36.315646+00:00</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5018,6 +6058,11 @@
           <t>2023-03-26 13:11:36.782350+00:00</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5040,6 +6085,11 @@
           <t>2023-03-26 13:11:37.145941+00:00</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5062,6 +6112,11 @@
           <t>2023-03-26 13:11:37.487240+00:00</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5084,6 +6139,11 @@
           <t>2023-03-26 13:11:38.271930+00:00</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5106,6 +6166,11 @@
           <t>2023-03-26 13:11:38.370089+00:00</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5128,6 +6193,11 @@
           <t>2023-03-26 13:11:38.846599+00:00</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5150,6 +6220,11 @@
           <t>2023-03-26 13:11:39.177289+00:00</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5172,6 +6247,11 @@
           <t>2023-03-26 13:11:39.595863+00:00</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5194,6 +6274,11 @@
           <t>2023-03-26 13:11:40.151806+00:00</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5216,6 +6301,11 @@
           <t>2023-03-26 13:11:40.492891+00:00</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5238,6 +6328,11 @@
           <t>2023-03-26 13:11:40.883703+00:00</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5260,6 +6355,11 @@
           <t>2023-03-26 13:11:46.706728+00:00</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5282,6 +6382,11 @@
           <t>2023-03-26 13:11:47.066838+00:00</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5304,6 +6409,11 @@
           <t>2023-03-26 13:11:47.593395+00:00</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5326,6 +6436,11 @@
           <t>2023-03-26 13:11:53.351251+00:00</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5348,6 +6463,11 @@
           <t>2023-03-26 13:11:54.771631+00:00</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5370,6 +6490,11 @@
           <t>2023-03-26 13:11:55.990221+00:00</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5392,6 +6517,11 @@
           <t>2023-03-26 13:12:19.596352+00:00</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5414,6 +6544,11 @@
           <t>2023-03-26 13:12:20.015255+00:00</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5436,6 +6571,11 @@
           <t>2023-03-26 13:12:20.388725+00:00</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5458,6 +6598,11 @@
           <t>2023-03-26 13:12:20.688038+00:00</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5480,6 +6625,11 @@
           <t>2023-03-26 13:12:21.191952+00:00</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5502,6 +6652,11 @@
           <t>2023-03-26 13:12:21.418502+00:00</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5524,6 +6679,11 @@
           <t>2023-03-26 13:12:21.546874+00:00</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5546,6 +6706,11 @@
           <t>2023-03-26 13:12:21.688441+00:00</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5568,6 +6733,11 @@
           <t>2023-03-26 13:12:21.917287+00:00</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5590,6 +6760,11 @@
           <t>2023-03-26 13:12:22.060588+00:00</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5612,6 +6787,11 @@
           <t>2023-03-26 13:12:22.210320+00:00</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5634,6 +6814,11 @@
           <t>2023-03-26 13:12:22.506783+00:00</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5656,6 +6841,11 @@
           <t>2023-03-26 13:12:22.744049+00:00</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5678,6 +6868,11 @@
           <t>2023-03-26 13:12:22.940153+00:00</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5700,6 +6895,11 @@
           <t>2023-03-26 13:12:23.132151+00:00</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5722,6 +6922,11 @@
           <t>2023-03-26 13:12:23.472164+00:00</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5744,6 +6949,11 @@
           <t>2023-03-26 13:12:23.667158+00:00</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5766,6 +6976,11 @@
           <t>2023-03-26 13:12:23.758356+00:00</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5788,6 +7003,11 @@
           <t>2023-03-26 13:12:23.947941+00:00</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5810,6 +7030,11 @@
           <t>2023-03-26 13:12:24.166966+00:00</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5832,6 +7057,11 @@
           <t>2023-03-26 13:13:06.509848+00:00</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5854,6 +7084,11 @@
           <t>2023-03-26 13:13:06.793696+00:00</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5876,6 +7111,11 @@
           <t>2023-03-26 13:13:06.807792+00:00</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5898,6 +7138,11 @@
           <t>2023-03-26 13:13:06.997976+00:00</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5920,6 +7165,11 @@
           <t>2023-03-26 13:13:07.013975+00:00</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5942,6 +7192,11 @@
           <t>2023-03-26 13:13:07.053024+00:00</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5964,6 +7219,11 @@
           <t>2023-03-26 13:13:07.202715+00:00</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5986,6 +7246,11 @@
           <t>2023-03-26 13:13:07.342998+00:00</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6008,6 +7273,11 @@
           <t>2023-03-26 13:13:07.644039+00:00</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6030,6 +7300,11 @@
           <t>2023-03-26 13:13:07.833182+00:00</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6052,6 +7327,11 @@
           <t>2023-03-26 13:13:07.952895+00:00</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6074,6 +7354,11 @@
           <t>2023-03-26 13:13:08.159914+00:00</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6096,6 +7381,11 @@
           <t>2023-03-26 13:13:08.362738+00:00</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6118,6 +7408,11 @@
           <t>2023-03-26 13:13:08.443486+00:00</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6140,6 +7435,11 @@
           <t>2023-03-26 13:13:08.646769+00:00</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6162,6 +7462,11 @@
           <t>2023-03-26 13:13:08.913156+00:00</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6184,6 +7489,11 @@
           <t>2023-03-26 13:13:09.072844+00:00</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6206,6 +7516,11 @@
           <t>2023-03-26 13:13:09.289602+00:00</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6228,6 +7543,11 @@
           <t>2023-03-26 13:13:52.971729+00:00</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6250,6 +7570,11 @@
           <t>2023-03-26 13:13:54.101996+00:00</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6272,6 +7597,11 @@
           <t>2023-03-26 13:13:55.598375+00:00</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6294,6 +7624,11 @@
           <t>2023-03-26 13:13:56.988461+00:00</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6316,6 +7651,11 @@
           <t>2023-03-26 13:13:58.121866+00:00</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6338,6 +7678,11 @@
           <t>2023-03-26 13:13:59.314277+00:00</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6360,6 +7705,11 @@
           <t>2023-03-26 13:14:00.313901+00:00</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6382,6 +7732,11 @@
           <t>2023-03-26 13:14:01.692646+00:00</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6404,6 +7759,11 @@
           <t>2023-03-26 13:14:02.894705+00:00</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6426,6 +7786,11 @@
           <t>2023-03-26 13:14:03.734423+00:00</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6448,6 +7813,11 @@
           <t>2023-03-26 13:14:04.985142+00:00</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6470,6 +7840,11 @@
           <t>2023-03-26 13:14:06.407164+00:00</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6492,6 +7867,11 @@
           <t>2023-03-26 13:14:08.074818+00:00</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6514,6 +7894,11 @@
           <t>2023-03-26 13:14:10.111811+00:00</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6536,6 +7921,11 @@
           <t>2023-03-26 13:14:10.262849+00:00</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6558,6 +7948,11 @@
           <t>2023-03-26 13:14:10.355611+00:00</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6580,6 +7975,11 @@
           <t>2023-03-26 13:14:10.617421+00:00</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6602,6 +8002,11 @@
           <t>2023-03-26 13:14:10.663355+00:00</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6624,6 +8029,11 @@
           <t>2023-03-26 13:14:10.680950+00:00</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6646,6 +8056,11 @@
           <t>2023-03-26 13:14:10.864610+00:00</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6668,6 +8083,11 @@
           <t>2023-03-26 13:14:11.113468+00:00</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6690,6 +8110,11 @@
           <t>2023-03-26 13:19:49.907468+00:00</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6712,6 +8137,11 @@
           <t>2023-03-26 13:19:50.104612+00:00</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6734,6 +8164,11 @@
           <t>2023-03-26 13:19:50.213441+00:00</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6756,6 +8191,11 @@
           <t>2023-03-26 13:19:50.414215+00:00</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6778,6 +8218,11 @@
           <t>2023-03-26 13:19:50.571419+00:00</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6800,6 +8245,11 @@
           <t>2023-03-26 13:19:50.604547+00:00</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6822,6 +8272,11 @@
           <t>2023-03-26 13:19:50.800489+00:00</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6844,6 +8299,11 @@
           <t>2023-03-26 13:19:51.033797+00:00</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6866,6 +8326,11 @@
           <t>2023-03-26 13:19:51.156073+00:00</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6888,6 +8353,11 @@
           <t>2023-03-26 13:19:51.427641+00:00</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6910,6 +8380,11 @@
           <t>2023-03-26 13:19:51.664678+00:00</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6932,6 +8407,11 @@
           <t>2023-03-26 13:19:51.721307+00:00</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6954,6 +8434,11 @@
           <t>2023-03-26 13:19:51.835932+00:00</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6976,6 +8461,11 @@
           <t>2023-03-26 13:19:52.111596+00:00</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6998,6 +8488,11 @@
           <t>2023-03-26 13:19:52.208866+00:00</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7020,6 +8515,11 @@
           <t>2023-03-26 13:19:52.303078+00:00</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7042,6 +8542,11 @@
           <t>2023-03-26 13:19:52.583777+00:00</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7064,6 +8569,11 @@
           <t>2023-03-26 13:19:52.849699+00:00</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7086,6 +8596,11 @@
           <t>2023-03-26 13:25:33.441916+00:00</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7108,6 +8623,11 @@
           <t>2023-03-26 13:25:34.499069+00:00</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7130,6 +8650,11 @@
           <t>2023-03-26 13:25:36.998517+00:00</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7152,6 +8677,11 @@
           <t>2023-03-26 13:25:38.640834+00:00</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7174,6 +8704,11 @@
           <t>2023-03-26 13:25:40.858695+00:00</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7196,6 +8731,11 @@
           <t>2023-03-26 13:25:42.614961+00:00</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7218,6 +8758,11 @@
           <t>2023-03-26 13:25:45.564121+00:00</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7240,6 +8785,11 @@
           <t>2023-03-26 13:25:47.128508+00:00</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7262,6 +8812,11 @@
           <t>2023-03-26 13:25:49.000113+00:00</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7284,6 +8839,11 @@
           <t>2023-03-26 13:25:53.715539+00:00</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7306,6 +8866,11 @@
           <t>2023-03-26 13:25:57.568990+00:00</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7328,6 +8893,11 @@
           <t>2023-03-26 13:25:59.737266+00:00</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7350,6 +8920,11 @@
           <t>2023-03-26 13:26:33.001920+00:00</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7372,6 +8947,11 @@
           <t>2023-03-26 13:26:35.891053+00:00</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7394,6 +8974,11 @@
           <t>2023-03-26 13:26:37.393452+00:00</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7416,6 +9001,11 @@
           <t>2023-03-26 13:26:38.863306+00:00</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7438,6 +9028,11 @@
           <t>2023-03-26 13:26:40.112060+00:00</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7460,6 +9055,11 @@
           <t>2023-03-26 13:26:41.562395+00:00</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7482,6 +9082,11 @@
           <t>2023-03-26 13:26:43.240995+00:00</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7504,6 +9109,11 @@
           <t>2023-03-26 13:26:44.638153+00:00</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7526,6 +9136,11 @@
           <t>2023-03-26 13:26:45.915467+00:00</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7548,6 +9163,11 @@
           <t>2023-03-26 13:26:47.533014+00:00</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7570,6 +9190,11 @@
           <t>2023-03-26 13:26:48.864858+00:00</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7592,6 +9217,11 @@
           <t>2023-03-26 13:26:50.689978+00:00</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7614,6 +9244,11 @@
           <t>2023-03-26 13:26:53.651990+00:00</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7636,6 +9271,11 @@
           <t>2023-03-26 13:26:55.226232+00:00</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7658,6 +9298,11 @@
           <t>2023-03-26 13:26:57.252192+00:00</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7680,6 +9325,11 @@
           <t>2023-03-26 13:28:35.206011+00:00</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7702,6 +9352,11 @@
           <t>2023-03-26 13:28:36.162400+00:00</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7724,6 +9379,11 @@
           <t>2023-03-26 13:28:36.853032+00:00</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7746,6 +9406,11 @@
           <t>2023-03-26 13:28:37.373237+00:00</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7768,6 +9433,11 @@
           <t>2023-03-26 13:28:37.815796+00:00</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7790,6 +9460,11 @@
           <t>2023-03-26 13:28:38.196899+00:00</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7812,6 +9487,11 @@
           <t>2023-03-26 13:28:38.747795+00:00</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7834,6 +9514,11 @@
           <t>2023-03-26 13:28:39.427353+00:00</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7856,6 +9541,11 @@
           <t>2023-03-26 13:28:40.474535+00:00</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7878,6 +9568,11 @@
           <t>2023-03-26 13:28:41.123817+00:00</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7900,6 +9595,11 @@
           <t>2023-03-26 13:28:45.597201+00:00</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7922,6 +9622,11 @@
           <t>2023-03-26 13:28:58.386448+00:00</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7944,6 +9649,11 @@
           <t>2023-03-26 13:29:04.263244+00:00</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7966,6 +9676,11 @@
           <t>2023-03-26 13:40:30.206733+00:00</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -7988,6 +9703,11 @@
           <t>2023-03-26 13:40:30.410618+00:00</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8010,6 +9730,11 @@
           <t>2023-03-26 13:40:30.433169+00:00</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8032,6 +9757,11 @@
           <t>2023-03-26 13:40:30.495556+00:00</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8054,6 +9784,11 @@
           <t>2023-03-26 13:40:31.044770+00:00</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8076,6 +9811,11 @@
           <t>2023-03-26 13:40:31.635983+00:00</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8098,6 +9838,11 @@
           <t>2023-03-26 13:40:31.948089+00:00</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8120,6 +9865,11 @@
           <t>2023-03-26 13:40:32.767160+00:00</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8142,6 +9892,11 @@
           <t>2023-03-26 13:40:33.381939+00:00</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8164,6 +9919,11 @@
           <t>2023-03-26 13:40:33.890927+00:00</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8186,6 +9946,11 @@
           <t>2023-03-26 13:40:34.495990+00:00</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8208,6 +9973,11 @@
           <t>2023-03-26 13:40:35.235320+00:00</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8230,6 +10000,11 @@
           <t>2023-03-26 13:40:35.736689+00:00</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8252,6 +10027,11 @@
           <t>2023-03-26 13:40:36.657411+00:00</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8274,6 +10054,11 @@
           <t>2023-03-26 13:40:37.177370+00:00</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8296,6 +10081,11 @@
           <t>2023-03-26 13:40:38.195544+00:00</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8318,6 +10108,11 @@
           <t>2023-03-26 13:40:47.923531+00:00</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8340,6 +10135,11 @@
           <t>2023-03-26 13:40:50.175997+00:00</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8362,6 +10162,11 @@
           <t>2023-03-26 13:40:51.918754+00:00</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8384,6 +10189,11 @@
           <t>2023-03-26 13:40:54.477611+00:00</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8406,6 +10216,11 @@
           <t>2023-03-26 13:40:56.320948+00:00</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8428,6 +10243,11 @@
           <t>2023-03-26 13:40:58.776530+00:00</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8450,6 +10270,11 @@
           <t>2023-03-26 13:41:01.030276+00:00</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8472,6 +10297,11 @@
           <t>2023-03-26 13:41:03.079586+00:00</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8494,6 +10324,11 @@
           <t>2023-03-26 13:41:04.879403+00:00</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8516,6 +10351,11 @@
           <t>2023-03-26 13:41:07.277677+00:00</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -8538,6 +10378,11 @@
           <t>2023-03-26 13:41:09.632162+00:00</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8560,6 +10405,11 @@
           <t>2023-03-26 13:41:11.947448+00:00</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -8582,6 +10432,11 @@
           <t>2023-03-26 13:41:14.138758+00:00</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -8604,6 +10459,11 @@
           <t>2023-03-26 13:41:16.302262+00:00</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -8626,6 +10486,11 @@
           <t>2023-03-26 13:41:18.438574+00:00</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -8648,6 +10513,11 @@
           <t>2023-03-26 13:41:30.216153+00:00</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -8670,6 +10540,11 @@
           <t>2023-03-26 13:41:31.035246+00:00</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -8692,6 +10567,11 @@
           <t>2023-03-26 13:41:31.991785+00:00</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -8714,6 +10594,11 @@
           <t>2023-03-26 13:41:32.973894+00:00</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -8736,6 +10621,11 @@
           <t>2023-03-26 13:41:33.491156+00:00</t>
         </is>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -8758,6 +10648,11 @@
           <t>2023-03-26 13:41:33.901067+00:00</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -8780,6 +10675,11 @@
           <t>2023-03-26 13:41:34.208578+00:00</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8802,6 +10702,11 @@
           <t>2023-03-26 13:41:34.489590+00:00</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -8824,6 +10729,11 @@
           <t>2023-03-26 13:41:34.720652+00:00</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8846,6 +10756,11 @@
           <t>2023-03-26 13:41:34.875357+00:00</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -8868,6 +10783,11 @@
           <t>2023-03-26 13:41:35.130832+00:00</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -8890,6 +10810,11 @@
           <t>2023-03-26 13:41:35.352025+00:00</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -8912,6 +10837,11 @@
           <t>2023-03-26 13:41:35.504227+00:00</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -8934,6 +10864,11 @@
           <t>2023-03-26 13:41:35.543730+00:00</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -8956,6 +10891,11 @@
           <t>2023-03-26 13:41:35.980177+00:00</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8978,6 +10918,11 @@
           <t>2023-03-26 13:41:36.086231+00:00</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -9000,6 +10945,11 @@
           <t>2023-03-26 13:41:36.311526+00:00</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -9022,6 +10972,11 @@
           <t>2023-03-26 13:41:36.494510+00:00</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9044,6 +10999,11 @@
           <t>2023-03-26 13:41:36.665684+00:00</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -9066,6 +11026,11 @@
           <t>2023-03-26 13:41:36.811326+00:00</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9088,6 +11053,11 @@
           <t>2023-03-26 13:41:37.058075+00:00</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9110,6 +11080,11 @@
           <t>2023-03-26 13:41:37.292058+00:00</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -9132,6 +11107,11 @@
           <t>2023-03-26 13:41:37.360660+00:00</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -9154,6 +11134,11 @@
           <t>2023-03-26 13:41:37.813941+00:00</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -9176,6 +11161,11 @@
           <t>2023-03-26 13:41:37.894689+00:00</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -9198,6 +11188,11 @@
           <t>2023-03-26 13:41:37.936244+00:00</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -9220,6 +11215,11 @@
           <t>2023-03-26 13:41:38.201455+00:00</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -9242,6 +11242,11 @@
           <t>2023-03-26 13:41:38.447197+00:00</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -9264,6 +11269,11 @@
           <t>2023-03-26 13:41:38.611872+00:00</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -9286,6 +11296,11 @@
           <t>2023-03-26 13:41:38.619565+00:00</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -9308,6 +11323,11 @@
           <t>2023-03-26 13:41:38.901788+00:00</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -9330,6 +11350,11 @@
           <t>2023-03-26 13:41:39.225597+00:00</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -9352,6 +11377,11 @@
           <t>2023-03-26 13:41:39.330352+00:00</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -9374,6 +11404,11 @@
           <t>2023-03-26 13:41:39.634214+00:00</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -9396,6 +11431,11 @@
           <t>2023-03-26 13:41:39.949750+00:00</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -9418,6 +11458,11 @@
           <t>2023-03-26 13:41:40.146944+00:00</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -9440,6 +11485,11 @@
           <t>2023-03-26 13:41:40.349865+00:00</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -9462,6 +11512,11 @@
           <t>2023-03-26 13:41:40.571152+00:00</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9484,6 +11539,11 @@
           <t>2023-03-26 13:41:40.750529+00:00</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -9506,6 +11566,11 @@
           <t>2023-03-26 13:41:40.869772+00:00</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -9528,6 +11593,11 @@
           <t>2023-03-26 13:41:41.018636+00:00</t>
         </is>
       </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -9550,6 +11620,11 @@
           <t>2023-03-26 13:41:41.525718+00:00</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -9572,6 +11647,11 @@
           <t>2023-03-26 13:41:41.551563+00:00</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -9594,6 +11674,11 @@
           <t>2023-03-26 13:41:41.843043+00:00</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -9616,6 +11701,11 @@
           <t>2023-03-26 13:41:42.211363+00:00</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -9638,6 +11728,11 @@
           <t>2023-03-26 13:41:42.274171+00:00</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -9660,6 +11755,11 @@
           <t>2023-03-26 13:41:42.330116+00:00</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -9682,6 +11782,11 @@
           <t>2023-03-26 13:41:42.568271+00:00</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -9704,6 +11809,11 @@
           <t>2023-03-26 13:41:42.733120+00:00</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -9726,6 +11836,11 @@
           <t>2023-03-26 13:41:42.958613+00:00</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -9748,6 +11863,11 @@
           <t>2023-03-26 13:41:43.042156+00:00</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -9770,6 +11890,11 @@
           <t>2023-03-26 13:41:43.226681+00:00</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -9792,6 +11917,11 @@
           <t>2023-03-26 13:41:43.453643+00:00</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -9814,6 +11944,11 @@
           <t>2023-03-26 13:41:43.733576+00:00</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -9836,6 +11971,11 @@
           <t>2023-03-26 13:41:43.840097+00:00</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9858,6 +11998,11 @@
           <t>2023-03-26 13:41:44.102981+00:00</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9880,6 +12025,11 @@
           <t>2023-03-26 13:41:44.132731+00:00</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -9902,6 +12052,11 @@
           <t>2023-03-26 13:41:44.654152+00:00</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9924,6 +12079,11 @@
           <t>2023-03-26 13:41:45.267508+00:00</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -9946,6 +12106,11 @@
           <t>2023-03-26 13:41:45.269514+00:00</t>
         </is>
       </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -9968,6 +12133,11 @@
           <t>2023-03-28 08:00:42.525533+00:00</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -9990,6 +12160,11 @@
           <t>2023-03-28 08:00:42.620726+00:00</t>
         </is>
       </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -10012,6 +12187,11 @@
           <t>2023-03-28 08:00:42.823886+00:00</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -10034,6 +12214,11 @@
           <t>2023-03-28 08:00:42.964319+00:00</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -10056,6 +12241,11 @@
           <t>2023-04-02 02:48:30.154918+00:00</t>
         </is>
       </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -10078,6 +12268,11 @@
           <t>2023-04-02 02:48:30.366219+00:00</t>
         </is>
       </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -10100,6 +12295,11 @@
           <t>2023-04-02 02:48:30.557023+00:00</t>
         </is>
       </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -10122,6 +12322,11 @@
           <t>2023-04-02 02:48:36.957528+00:00</t>
         </is>
       </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -10144,6 +12349,11 @@
           <t>2023-04-02 02:48:46.837281+00:00</t>
         </is>
       </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -10166,6 +12376,11 @@
           <t>2023-04-02 02:49:03.587415+00:00</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -10188,6 +12403,11 @@
           <t>2023-04-02 02:49:07.331446+00:00</t>
         </is>
       </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -10210,6 +12430,11 @@
           <t>2023-04-02 02:49:13.961421+00:00</t>
         </is>
       </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -10232,6 +12457,11 @@
           <t>2023-04-02 02:49:15.900840+00:00</t>
         </is>
       </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -10254,6 +12484,11 @@
           <t>2023-04-02 02:49:25.482440+00:00</t>
         </is>
       </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -10276,6 +12511,11 @@
           <t>2023-04-02 02:49:28.172252+00:00</t>
         </is>
       </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -10298,6 +12538,11 @@
           <t>2023-04-02 02:49:31.871841+00:00</t>
         </is>
       </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -10320,6 +12565,11 @@
           <t>2023-04-02 07:36:21.923224+00:00</t>
         </is>
       </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -10342,6 +12592,11 @@
           <t>2023-04-02 07:39:35.780648+00:00</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -10364,6 +12619,11 @@
           <t>2023-04-02 07:42:01.441481+00:00</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -10386,6 +12646,11 @@
           <t>2023-04-02 07:42:06.107248+00:00</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -10408,6 +12673,11 @@
           <t>2023-04-02 07:46:21.350201+00:00</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -10430,6 +12700,11 @@
           <t>2023-04-02 07:46:23.441499+00:00</t>
         </is>
       </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -10452,6 +12727,11 @@
           <t>2023-04-02 07:46:26.514135+00:00</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -10474,6 +12754,11 @@
           <t>2023-04-02 07:46:30.855674+00:00</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -10496,6 +12781,11 @@
           <t>2023-04-02 07:46:33.279031+00:00</t>
         </is>
       </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -10518,6 +12808,11 @@
           <t>2023-04-02 09:53:44.723439+00:00</t>
         </is>
       </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -10540,6 +12835,11 @@
           <t>2023-04-02 09:53:54.310993+00:00</t>
         </is>
       </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -10562,6 +12862,11 @@
           <t>2023-04-02 09:54:04.487625+00:00</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -10584,6 +12889,11 @@
           <t>2023-04-02 09:54:05.779983+00:00</t>
         </is>
       </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -10606,6 +12916,11 @@
           <t>2023-04-02 09:54:07.189362+00:00</t>
         </is>
       </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -10628,6 +12943,11 @@
           <t>2023-04-02 09:54:07.443912+00:00</t>
         </is>
       </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -10650,6 +12970,11 @@
           <t>2023-04-02 09:54:08.126725+00:00</t>
         </is>
       </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -10672,6 +12997,11 @@
           <t>2023-04-03 02:48:14.438275+00:00</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -10694,6 +13024,11 @@
           <t>2023-04-03 02:48:15.274668+00:00</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -10716,6 +13051,11 @@
           <t>2023-04-03 02:48:18.619796+00:00</t>
         </is>
       </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -10738,6 +13078,11 @@
           <t>2023-04-03 02:48:20.792701+00:00</t>
         </is>
       </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -10760,6 +13105,11 @@
           <t>2023-04-25 08:35:04.394911+00:00</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -10782,6 +13132,11 @@
           <t>2023-04-25 08:35:04.612908+00:00</t>
         </is>
       </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -10804,6 +13159,11 @@
           <t>2023-04-25 08:35:09.341418+00:00</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -10826,6 +13186,11 @@
           <t>2023-04-25 08:35:13.614736+00:00</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -10848,6 +13213,11 @@
           <t>2023-04-25 08:35:18.826725+00:00</t>
         </is>
       </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -10870,6 +13240,11 @@
           <t>2023-04-25 08:35:23.451411+00:00</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -10892,6 +13267,11 @@
           <t>2023-04-25 08:35:27.752437+00:00</t>
         </is>
       </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -10914,6 +13294,11 @@
           <t>2023-04-25 08:35:32.667268+00:00</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -10936,6 +13321,11 @@
           <t>2023-04-25 08:35:36.966863+00:00</t>
         </is>
       </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -10958,6 +13348,11 @@
           <t>2023-04-25 08:35:41.165993+00:00</t>
         </is>
       </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -10980,6 +13375,11 @@
           <t>2023-04-25 08:35:45.568980+00:00</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -11002,6 +13402,11 @@
           <t>2023-04-25 08:35:49.871377+00:00</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -11024,6 +13429,11 @@
           <t>2023-04-25 08:35:54.068779+00:00</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -11046,6 +13456,11 @@
           <t>2023-04-25 08:35:59.494590+00:00</t>
         </is>
       </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -11068,6 +13483,11 @@
           <t>2023-04-25 08:36:04.102766+00:00</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -11090,6 +13510,11 @@
           <t>2023-04-25 08:36:09.659532+00:00</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -11112,6 +13537,11 @@
           <t>2023-04-25 08:36:14.057944+00:00</t>
         </is>
       </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -11134,6 +13564,11 @@
           <t>2023-04-25 08:36:18.849687+00:00</t>
         </is>
       </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -11156,6 +13591,11 @@
           <t>2023-04-25 08:36:25.664253+00:00</t>
         </is>
       </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -11178,6 +13618,11 @@
           <t>2023-04-25 08:36:27.799038+00:00</t>
         </is>
       </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -11200,6 +13645,11 @@
           <t>2023-04-25 08:36:32.194654+00:00</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -11222,6 +13672,11 @@
           <t>2023-04-25 08:36:36.648292+00:00</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -11244,6 +13699,11 @@
           <t>2023-04-25 08:36:40.559110+00:00</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -11266,6 +13726,11 @@
           <t>2023-04-25 08:36:44.768124+00:00</t>
         </is>
       </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -11288,6 +13753,11 @@
           <t>2023-04-25 08:36:48.768528+00:00</t>
         </is>
       </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -11310,6 +13780,11 @@
           <t>2023-04-25 08:36:53.748290+00:00</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -11332,6 +13807,11 @@
           <t>2023-04-25 08:36:59.183787+00:00</t>
         </is>
       </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -11354,6 +13834,11 @@
           <t>2023-04-25 08:37:02.998899+00:00</t>
         </is>
       </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -11376,6 +13861,11 @@
           <t>2023-04-25 08:37:09.547756+00:00</t>
         </is>
       </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -11398,6 +13888,11 @@
           <t>2023-04-25 08:37:14.871017+00:00</t>
         </is>
       </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -11420,6 +13915,11 @@
           <t>2023-04-25 08:37:20.460176+00:00</t>
         </is>
       </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -11442,6 +13942,11 @@
           <t>2023-04-25 08:37:25.003033+00:00</t>
         </is>
       </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -11464,6 +13969,11 @@
           <t>2023-04-25 08:37:29.609389+00:00</t>
         </is>
       </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -11486,6 +13996,11 @@
           <t>2023-04-25 08:37:34.012679+00:00</t>
         </is>
       </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -11508,6 +14023,11 @@
           <t>2023-04-25 08:37:37.392287+00:00</t>
         </is>
       </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11530,6 +14050,11 @@
           <t>2023-04-25 08:37:41.489384+00:00</t>
         </is>
       </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11552,6 +14077,11 @@
           <t>2023-05-16 13:03:30.807980+00:00</t>
         </is>
       </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -11574,6 +14104,11 @@
           <t>2023-05-16 13:03:30.805710+00:00</t>
         </is>
       </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11596,6 +14131,11 @@
           <t>2023-05-16 13:03:33.981773+00:00</t>
         </is>
       </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -11618,6 +14158,11 @@
           <t>2023-05-16 13:03:39.613648+00:00</t>
         </is>
       </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -11640,6 +14185,11 @@
           <t>2023-05-16 13:03:42.497809+00:00</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -11662,6 +14212,11 @@
           <t>2023-05-16 13:03:48.623313+00:00</t>
         </is>
       </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -11684,6 +14239,11 @@
           <t>2023-05-16 13:03:56.502008+00:00</t>
         </is>
       </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -11706,6 +14266,11 @@
           <t>2023-05-16 13:04:00.606638+00:00</t>
         </is>
       </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -11728,6 +14293,11 @@
           <t>2023-05-16 13:04:06.461900+00:00</t>
         </is>
       </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -11750,6 +14320,11 @@
           <t>2023-05-16 13:04:10.893241+00:00</t>
         </is>
       </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -11772,6 +14347,11 @@
           <t>2023-05-16 13:04:15.453237+00:00</t>
         </is>
       </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -11794,6 +14374,11 @@
           <t>2023-05-16 13:04:20.063656+00:00</t>
         </is>
       </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -11816,6 +14401,11 @@
           <t>2023-05-16 13:04:24.157782+00:00</t>
         </is>
       </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -11838,6 +14428,11 @@
           <t>2023-05-16 13:04:31.736627+00:00</t>
         </is>
       </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -11860,6 +14455,11 @@
           <t>2023-05-16 13:04:40.848832+00:00</t>
         </is>
       </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -11882,6 +14482,11 @@
           <t>2023-05-16 13:04:46.788467+00:00</t>
         </is>
       </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -11904,6 +14509,11 @@
           <t>2023-05-16 13:04:54.367462+00:00</t>
         </is>
       </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -11926,6 +14536,11 @@
           <t>2023-05-16 13:04:59.895924+00:00</t>
         </is>
       </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -11948,6 +14563,11 @@
           <t>2023-05-16 13:05:07.987648+00:00</t>
         </is>
       </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -11970,6 +14590,11 @@
           <t>2023-05-16 13:05:13.004084+00:00</t>
         </is>
       </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -11992,6 +14617,11 @@
           <t>2023-05-20 15:54:20.274569+00:00</t>
         </is>
       </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -12014,6 +14644,11 @@
           <t>2023-05-20 15:54:24.753674+00:00</t>
         </is>
       </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -12036,6 +14671,11 @@
           <t>2023-05-20 15:54:32.193852+00:00</t>
         </is>
       </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -12058,6 +14698,11 @@
           <t>2023-05-20 15:54:39.241980+00:00</t>
         </is>
       </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -12080,6 +14725,11 @@
           <t>2023-05-20 15:54:48.244564+00:00</t>
         </is>
       </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -12100,6 +14750,11 @@
       <c r="D531" t="inlineStr">
         <is>
           <t>2023-05-20 15:54:54.736634+00:00</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>小明</t>
         </is>
       </c>
     </row>
